--- a/March 30 Weekly Report.xlsx
+++ b/March 30 Weekly Report.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -71,20 +71,10 @@
     <t>Irene Mayor</t>
   </si>
   <si>
-    <t>GhTorrent Data Collector</t>
-  </si>
-  <si>
     <t>Data Miner/ Quality Checker/Power-point master</t>
   </si>
   <si>
-    <t>GhTorrent Data Collector/
-Paper Researcher</t>
-  </si>
-  <si>
     <t>Data-Miner</t>
-  </si>
-  <si>
-    <t>Paper-Researcher</t>
   </si>
   <si>
     <t>Group Organizer/Quality Checker/Data Miner</t>
@@ -95,21 +85,11 @@
 *</t>
   </si>
   <si>
-    <t>*  Calculate LOC per Commit per Component per Author for second set of Months
-* Calculate Ownership of Component
-*</t>
-  </si>
-  <si>
     <t>*  Calculate LOC per Commit per Component per Author for third set of Four Months
 * Calculate Ownership of Component
 *</t>
   </si>
   <si>
-    <t>*  Calculate LOC per Commit per Component per Author for last set of Four Months
-* Calculate Ownership of Component
-*</t>
-  </si>
-  <si>
     <t>*  Calculate LOC per Commit per Component per Author for fifth set of Four Months
 * Calculate Ownership of Component
 *</t>
@@ -118,6 +98,21 @@
     <t xml:space="preserve">*  Calculate LOC per Commit per Component per Author for first set of Four Months
 * Calculate Ownership of Component
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Reading the code took a bit of effort to figure out how it organized itself into parts before settling onto directories as components
+*Creating the script to link commits to components took some work. There's still a lot of work to do in excel </t>
+  </si>
+  <si>
+    <t>*  Calculate LOC per Commit per Component per Author for second set of Months
+* Calculate Ownership of Component
+* Create Powerpoint slide for final report</t>
+  </si>
+  <si>
+    <t>*  Calculate LOC per Commit per Component per Author for last set of Four Months
+* Calculate Ownership of Component
+*Calculate Issues vs ownership per month
+*Calculate Issues vs ownership in general</t>
   </si>
 </sst>
 </file>
@@ -196,9 +191,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -211,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,13 +213,13 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBE5F1"/>
-          <bgColor rgb="FFDBE5F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -239,13 +234,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDBE5F1"/>
+          <bgColor rgb="FFDBE5F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -269,12 +264,12 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" name="Name" dataDxfId="0"/>
-    <tableColumn id="2" name="Role in the Group" dataDxfId="5"/>
-    <tableColumn id="3" name="What is done since last update" dataDxfId="1"/>
-    <tableColumn id="4" name="What will be done" dataDxfId="4"/>
-    <tableColumn id="5" name="Challenges" dataDxfId="3"/>
-    <tableColumn id="6" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" name="Name" dataDxfId="5"/>
+    <tableColumn id="2" name="Role in the Group" dataDxfId="4"/>
+    <tableColumn id="3" name="What is done since last update" dataDxfId="3"/>
+    <tableColumn id="4" name="What will be done" dataDxfId="2"/>
+    <tableColumn id="5" name="Challenges" dataDxfId="1"/>
+    <tableColumn id="6" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,10 +565,10 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,14 +582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -629,17 +624,17 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -647,17 +642,17 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
@@ -665,31 +660,31 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -701,38 +696,38 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3"/>
     </row>

--- a/March 30 Weekly Report.xlsx
+++ b/March 30 Weekly Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -113,6 +113,11 @@
 * Calculate Ownership of Component
 *Calculate Issues vs ownership per month
 *Calculate Issues vs ownership in general</t>
+  </si>
+  <si>
+    <t>*Excel statistics may not accurately reflect seasonal/holiday commits vs issues due to some holidays being on the edge of months (Christmas/New years)
+*
+*</t>
   </si>
 </sst>
 </file>
@@ -565,10 +570,10 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +682,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -691,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3"/>
     </row>
